--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.6112410154052</v>
+        <v>12.28498633333333</v>
       </c>
       <c r="H2">
-        <v>10.6112410154052</v>
+        <v>36.854959</v>
       </c>
       <c r="I2">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="J2">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.48119582337983</v>
+        <v>8.798756666666666</v>
       </c>
       <c r="N2">
-        <v>7.48119582337983</v>
+        <v>26.39627</v>
       </c>
       <c r="O2">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="P2">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="Q2">
-        <v>79.38477196532612</v>
+        <v>108.0926054003256</v>
       </c>
       <c r="R2">
-        <v>79.38477196532612</v>
+        <v>972.8334486029299</v>
       </c>
       <c r="S2">
-        <v>0.03395855022129429</v>
+        <v>0.04195459257026386</v>
       </c>
       <c r="T2">
-        <v>0.03395855022129429</v>
+        <v>0.04195459257026386</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.6112410154052</v>
+        <v>12.28498633333333</v>
       </c>
       <c r="H3">
-        <v>10.6112410154052</v>
+        <v>36.854959</v>
       </c>
       <c r="I3">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="J3">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.798280093923</v>
+        <v>1.814629</v>
       </c>
       <c r="N3">
-        <v>1.798280093923</v>
+        <v>5.443887</v>
       </c>
       <c r="O3">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="P3">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="Q3">
-        <v>19.08198348982245</v>
+        <v>22.29269246507033</v>
       </c>
       <c r="R3">
-        <v>19.08198348982245</v>
+        <v>200.634232185633</v>
       </c>
       <c r="S3">
-        <v>0.008162730440846738</v>
+        <v>0.008652588456003673</v>
       </c>
       <c r="T3">
-        <v>0.008162730440846738</v>
+        <v>0.008652588456003672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.6112410154052</v>
+        <v>12.28498633333333</v>
       </c>
       <c r="H4">
-        <v>10.6112410154052</v>
+        <v>36.854959</v>
       </c>
       <c r="I4">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="J4">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.930572988188</v>
+        <v>16.22229</v>
       </c>
       <c r="N4">
-        <v>15.930572988188</v>
+        <v>48.66687</v>
       </c>
       <c r="O4">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="P4">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="Q4">
-        <v>169.0431494911667</v>
+        <v>199.29061094537</v>
       </c>
       <c r="R4">
-        <v>169.0431494911667</v>
+        <v>1793.61549850833</v>
       </c>
       <c r="S4">
-        <v>0.07231185704065352</v>
+        <v>0.0773517888141013</v>
       </c>
       <c r="T4">
-        <v>0.07231185704065352</v>
+        <v>0.07735178881410128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.2363611481037</v>
+        <v>65.605124</v>
       </c>
       <c r="H5">
-        <v>64.2363611481037</v>
+        <v>196.815372</v>
       </c>
       <c r="I5">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="J5">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.48119582337983</v>
+        <v>8.798756666666666</v>
       </c>
       <c r="N5">
-        <v>7.48119582337983</v>
+        <v>26.39627</v>
       </c>
       <c r="O5">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="P5">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="Q5">
-        <v>480.5647967303117</v>
+        <v>577.2435221624933</v>
       </c>
       <c r="R5">
-        <v>480.5647967303117</v>
+        <v>5195.19169946244</v>
       </c>
       <c r="S5">
-        <v>0.2055719677758897</v>
+        <v>0.2240487838780371</v>
       </c>
       <c r="T5">
-        <v>0.2055719677758897</v>
+        <v>0.2240487838780371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.2363611481037</v>
+        <v>65.605124</v>
       </c>
       <c r="H6">
-        <v>64.2363611481037</v>
+        <v>196.815372</v>
       </c>
       <c r="I6">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="J6">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.798280093923</v>
+        <v>1.814629</v>
       </c>
       <c r="N6">
-        <v>1.798280093923</v>
+        <v>5.443887</v>
       </c>
       <c r="O6">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="P6">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="Q6">
-        <v>115.5149695586837</v>
+        <v>119.048960558996</v>
       </c>
       <c r="R6">
-        <v>115.5149695586837</v>
+        <v>1071.440645030964</v>
       </c>
       <c r="S6">
-        <v>0.04941402233646544</v>
+        <v>0.04620714449122758</v>
       </c>
       <c r="T6">
-        <v>0.04941402233646544</v>
+        <v>0.04620714449122758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.2363611481037</v>
+        <v>65.605124</v>
       </c>
       <c r="H7">
-        <v>64.2363611481037</v>
+        <v>196.815372</v>
       </c>
       <c r="I7">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="J7">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.930572988188</v>
+        <v>16.22229</v>
       </c>
       <c r="N7">
-        <v>15.930572988188</v>
+        <v>48.66687</v>
       </c>
       <c r="O7">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="P7">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="Q7">
-        <v>1023.32203976547</v>
+        <v>1064.26534701396</v>
       </c>
       <c r="R7">
-        <v>1023.32203976547</v>
+        <v>9578.38812312564</v>
       </c>
       <c r="S7">
-        <v>0.4377480972687235</v>
+        <v>0.4130793115334299</v>
       </c>
       <c r="T7">
-        <v>0.4377480972687235</v>
+        <v>0.4130793115334299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.8811408249486</v>
+        <v>18.11712033333333</v>
       </c>
       <c r="H8">
-        <v>17.8811408249486</v>
+        <v>54.351361</v>
       </c>
       <c r="I8">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="J8">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.48119582337983</v>
+        <v>8.798756666666666</v>
       </c>
       <c r="N8">
-        <v>7.48119582337983</v>
+        <v>26.39627</v>
       </c>
       <c r="O8">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="P8">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="Q8">
-        <v>133.772316056872</v>
+        <v>159.4081333137189</v>
       </c>
       <c r="R8">
-        <v>133.772316056872</v>
+        <v>1434.67319982347</v>
       </c>
       <c r="S8">
-        <v>0.05722399649923185</v>
+        <v>0.06187197783599024</v>
       </c>
       <c r="T8">
-        <v>0.05722399649923185</v>
+        <v>0.06187197783599024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.8811408249486</v>
+        <v>18.11712033333333</v>
       </c>
       <c r="H9">
-        <v>17.8811408249486</v>
+        <v>54.351361</v>
       </c>
       <c r="I9">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="J9">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.798280093923</v>
+        <v>1.814629</v>
       </c>
       <c r="N9">
-        <v>1.798280093923</v>
+        <v>5.443887</v>
       </c>
       <c r="O9">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="P9">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="Q9">
-        <v>32.15529960213895</v>
+        <v>32.87585195335633</v>
       </c>
       <c r="R9">
-        <v>32.15529960213895</v>
+        <v>295.882667580207</v>
       </c>
       <c r="S9">
-        <v>0.01375512367657796</v>
+        <v>0.01276028983661841</v>
       </c>
       <c r="T9">
-        <v>0.01375512367657796</v>
+        <v>0.01276028983661841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.8811408249486</v>
+        <v>18.11712033333333</v>
       </c>
       <c r="H10">
-        <v>17.8811408249486</v>
+        <v>54.351361</v>
       </c>
       <c r="I10">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="J10">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.930572988188</v>
+        <v>16.22229</v>
       </c>
       <c r="N10">
-        <v>15.930572988188</v>
+        <v>48.66687</v>
       </c>
       <c r="O10">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="P10">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="Q10">
-        <v>284.8568190239118</v>
+        <v>293.90118001223</v>
       </c>
       <c r="R10">
-        <v>284.8568190239118</v>
+        <v>2645.11062011007</v>
       </c>
       <c r="S10">
-        <v>0.121853654740317</v>
+        <v>0.114073522584328</v>
       </c>
       <c r="T10">
-        <v>0.121853654740317</v>
+        <v>0.114073522584328</v>
       </c>
     </row>
   </sheetData>
